--- a/peer-assessment-template.xlsx
+++ b/peer-assessment-template.xlsx
@@ -151,18 +151,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Erik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niklas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimmo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Mira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Points</t>
@@ -320,8 +320,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,174 +449,138 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="11" t="n">
         <v>4</v>
       </c>
     </row>

--- a/peer-assessment-template.xlsx
+++ b/peer-assessment-template.xlsx
@@ -153,16 +153,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Erik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niklas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimmo</t>
+    <t xml:space="preserve">Fadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antti</t>
   </si>
   <si>
     <t xml:space="preserve">Points</t>
@@ -320,8 +320,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,174 +449,174 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="B2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="B4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="n">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="n">
+      <c r="B6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="n">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>7</v>
+      <c r="B11" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="11" t="n">
         <v>4</v>
       </c>
     </row>

--- a/peer-assessment-template.xlsx
+++ b/peer-assessment-template.xlsx
@@ -153,16 +153,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Erik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niklas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimmo</t>
+    <t xml:space="preserve">Fadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antti</t>
   </si>
   <si>
     <t xml:space="preserve">Points</t>
@@ -320,8 +320,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,174 +449,174 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="n">
+      <c r="B2" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="B4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="n">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="n">
+      <c r="B6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="n">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>7</v>
+      <c r="B11" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="11" t="n">
         <v>4</v>
       </c>
     </row>
